--- a/Naive_v_Mlut_ANOVAexcel.xlsx
+++ b/Naive_v_Mlut_ANOVAexcel.xlsx
@@ -1,68 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_CF7FFDCE8F79A8D366075C52F38C3270D668C8FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE1A6821-6F0A-4D55-AF1F-BA103C89BEED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Chi2</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>poly(Temperature_centered, 2)</t>
-  </si>
-  <si>
-    <t>poly(Age_centered, 2)</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Temperature_centered</t>
-  </si>
-  <si>
-    <t>Age_centered</t>
-  </si>
-  <si>
-    <t>Temperature_centered:Age_centered</t>
-  </si>
-  <si>
-    <t>Treatment:Temperature_centered</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,34 +52,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,120 +350,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>15.45752693534943</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>poly(Temperature_centered, 2)</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>18.80114452473175</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>4.3998784005402138E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8.8204802730894265</v>
+      <c r="D2">
+        <v>8.267673922999153e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>poly(Age_centered, 2)</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>3.972024769590996</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.215225977782995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>47.838542057986061</v>
+      <c r="D3">
+        <v>0.1372416024505478</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>58.65472955428785</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>4.6280389245782921E-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="D4">
+        <v>1.879158657623062e-14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Temperature_centered</t>
+        </is>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Age_centered</t>
+        </is>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.3737946470607722</v>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Temperature_centered:Age_centered</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.4568476702545645</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.5409430911815245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6.3308035462340877</v>
+      <c r="D7">
+        <v>0.4991009154540428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Treatment:Temperature_centered</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>6.262213974800032</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <v>1.1865854295956321E-2</v>
+      <c r="D8">
+        <v>0.01233399714879824</v>
       </c>
     </row>
   </sheetData>
